--- a/Output_Schedule.xlsx
+++ b/Output_Schedule.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="176">
   <si>
     <t>Tier</t>
   </si>
@@ -120,10 +120,10 @@
     <t>19/12/2021</t>
   </si>
   <si>
-    <t>28/12/2021</t>
-  </si>
-  <si>
-    <t>1/1/2022</t>
+    <t>Longbranch</t>
+  </si>
+  <si>
+    <t>09:00</t>
   </si>
   <si>
     <t>2/1/2022</t>
@@ -141,6 +141,9 @@
     <t>30/1/2022</t>
   </si>
   <si>
+    <t>5/2/2022</t>
+  </si>
+  <si>
     <t>6/2/2022</t>
   </si>
   <si>
@@ -183,10 +186,7 @@
     <t>6/12/2021</t>
   </si>
   <si>
-    <t>25/12/2021</t>
-  </si>
-  <si>
-    <t>27/12/2021</t>
+    <t>3/1/2022</t>
   </si>
   <si>
     <t>15/1/2022</t>
@@ -201,9 +201,6 @@
     <t>29/1/2022</t>
   </si>
   <si>
-    <t>5/2/2022</t>
-  </si>
-  <si>
     <t>12/2/2022</t>
   </si>
   <si>
@@ -300,7 +297,10 @@
     <t>22/12/2021</t>
   </si>
   <si>
-    <t>30/12/2021</t>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>16:30</t>
   </si>
   <si>
     <t>5/1/2022</t>
@@ -345,9 +345,6 @@
     <t>23/3/2022</t>
   </si>
   <si>
-    <t>16:45</t>
-  </si>
-  <si>
     <t>30/3/2022</t>
   </si>
   <si>
@@ -360,10 +357,13 @@
     <t>U8</t>
   </si>
   <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>9/11/2021</t>
+    <t>4/1/2022</t>
+  </si>
+  <si>
+    <t>Leaside A</t>
+  </si>
+  <si>
+    <t>11/11/2021</t>
   </si>
   <si>
     <t>14/11/2021</t>
@@ -378,169 +378,175 @@
     <t>20/12/2021</t>
   </si>
   <si>
-    <t>3/1/2022</t>
-  </si>
-  <si>
     <t>10/1/2022</t>
   </si>
   <si>
+    <t>17/1/2022</t>
+  </si>
+  <si>
+    <t>24/1/2022</t>
+  </si>
+  <si>
+    <t>31/1/2022</t>
+  </si>
+  <si>
+    <t>Leaside White</t>
+  </si>
+  <si>
+    <t>GB White</t>
+  </si>
+  <si>
+    <t>19:15</t>
+  </si>
+  <si>
+    <t>18/11/2021</t>
+  </si>
+  <si>
+    <t>14/12/2021</t>
+  </si>
+  <si>
+    <t>21/12/2021</t>
+  </si>
+  <si>
+    <t>6/1/2022</t>
+  </si>
+  <si>
+    <t>11/1/2022</t>
+  </si>
+  <si>
+    <t>18/1/2022</t>
+  </si>
+  <si>
+    <t>25/1/2022</t>
+  </si>
+  <si>
+    <t>1/2/2022</t>
+  </si>
+  <si>
+    <t>7/2/2022</t>
+  </si>
+  <si>
+    <t>14/2/2022</t>
+  </si>
+  <si>
+    <t>21/2/2022</t>
+  </si>
+  <si>
+    <t>28/2/2022</t>
+  </si>
+  <si>
+    <t>7/3/2022</t>
+  </si>
+  <si>
+    <t>21/3/2022</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>Chris Tonks</t>
+  </si>
+  <si>
+    <t>7/1/2022</t>
+  </si>
+  <si>
+    <t>15/11/2021</t>
+  </si>
+  <si>
+    <t>28/11/2021</t>
+  </si>
+  <si>
+    <t>1/12/2021</t>
+  </si>
+  <si>
+    <t>NYK Black</t>
+  </si>
+  <si>
+    <t>8/12/2021</t>
+  </si>
+  <si>
+    <t>8/2/2022</t>
+  </si>
+  <si>
+    <t>15/2/2022</t>
+  </si>
+  <si>
+    <t>22/2/2022</t>
+  </si>
+  <si>
+    <t>1/3/2022</t>
+  </si>
+  <si>
+    <t>8/3/2022</t>
+  </si>
+  <si>
+    <t>4/4/2022</t>
+  </si>
+  <si>
+    <t>FS White</t>
+  </si>
+  <si>
+    <t>NYK White</t>
+  </si>
+  <si>
+    <t>19/11/2021</t>
+  </si>
+  <si>
+    <t>Leaside Orange</t>
+  </si>
+  <si>
+    <t>Leaside Purple</t>
+  </si>
+  <si>
+    <t>25/11/2021</t>
+  </si>
+  <si>
+    <t>FS Red</t>
+  </si>
+  <si>
+    <t>WM-WP Red</t>
+  </si>
+  <si>
+    <t>26/11/2021</t>
+  </si>
+  <si>
+    <t>GB Red</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>3/12/2021</t>
+  </si>
+  <si>
+    <t>16/12/2021</t>
+  </si>
+  <si>
+    <t>17/12/2021</t>
+  </si>
+  <si>
+    <t>23/12/2021</t>
+  </si>
+  <si>
+    <t>13/1/2022</t>
+  </si>
+  <si>
+    <t>20/1/2022</t>
+  </si>
+  <si>
+    <t>27/1/2022</t>
+  </si>
+  <si>
+    <t>3/2/2022</t>
+  </si>
+  <si>
+    <t>10/2/2022</t>
+  </si>
+  <si>
+    <t>17/2/2022</t>
+  </si>
+  <si>
     <t>27/3/2022</t>
-  </si>
-  <si>
-    <t>Leaside White</t>
-  </si>
-  <si>
-    <t>GB White</t>
-  </si>
-  <si>
-    <t>Leaside A</t>
-  </si>
-  <si>
-    <t>11/11/2021</t>
-  </si>
-  <si>
-    <t>18/11/2021</t>
-  </si>
-  <si>
-    <t>14/12/2021</t>
-  </si>
-  <si>
-    <t>4/1/2022</t>
-  </si>
-  <si>
-    <t>11/1/2022</t>
-  </si>
-  <si>
-    <t>18/1/2022</t>
-  </si>
-  <si>
-    <t>25/1/2022</t>
-  </si>
-  <si>
-    <t>1/2/2022</t>
-  </si>
-  <si>
-    <t>7/2/2022</t>
-  </si>
-  <si>
-    <t>14/2/2022</t>
-  </si>
-  <si>
-    <t>21/2/2022</t>
-  </si>
-  <si>
-    <t>28/2/2022</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>NYK Black</t>
-  </si>
-  <si>
-    <t>19:15</t>
-  </si>
-  <si>
-    <t>29/12/2021</t>
-  </si>
-  <si>
-    <t>8/2/2022</t>
-  </si>
-  <si>
-    <t>15/2/2022</t>
-  </si>
-  <si>
-    <t>22/2/2022</t>
-  </si>
-  <si>
-    <t>4/4/2022</t>
-  </si>
-  <si>
-    <t>FS White</t>
-  </si>
-  <si>
-    <t>1/12/2021</t>
-  </si>
-  <si>
-    <t>8/12/2021</t>
-  </si>
-  <si>
-    <t>21/12/2021</t>
-  </si>
-  <si>
-    <t>Leaside Orange</t>
-  </si>
-  <si>
-    <t>Leaside Purple</t>
-  </si>
-  <si>
-    <t>NYK White</t>
-  </si>
-  <si>
-    <t>15/11/2021</t>
-  </si>
-  <si>
-    <t>FS Red</t>
-  </si>
-  <si>
-    <t>19/11/2021</t>
-  </si>
-  <si>
-    <t>GB Red</t>
-  </si>
-  <si>
-    <t>Longbranch</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>25/11/2021</t>
-  </si>
-  <si>
-    <t>WM-WP Red</t>
-  </si>
-  <si>
-    <t>28/11/2021</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>16/12/2021</t>
-  </si>
-  <si>
-    <t>23/12/2021</t>
-  </si>
-  <si>
-    <t>26/12/2021</t>
-  </si>
-  <si>
-    <t>6/1/2022</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>13/1/2022</t>
-  </si>
-  <si>
-    <t>20/1/2022</t>
-  </si>
-  <si>
-    <t>27/1/2022</t>
-  </si>
-  <si>
-    <t>3/2/2022</t>
-  </si>
-  <si>
-    <t>10/2/2022</t>
-  </si>
-  <si>
-    <t>17/2/2022</t>
-  </si>
-  <si>
-    <t>27/2/2022</t>
   </si>
   <si>
     <t>12:00</t>
@@ -949,19 +955,19 @@
         <v>7</v>
       </c>
       <c r="C15" t="s" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s" s="1">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s" s="1">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -978,13 +984,13 @@
         <v>13</v>
       </c>
       <c r="E16" t="s" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -995,19 +1001,19 @@
         <v>7</v>
       </c>
       <c r="C17" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="D17" t="s" s="1">
-        <v>9</v>
-      </c>
       <c r="E17" t="s" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -1018,19 +1024,19 @@
         <v>7</v>
       </c>
       <c r="C18" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="D18" t="s" s="1">
-        <v>13</v>
-      </c>
       <c r="E18" t="s" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -1053,7 +1059,7 @@
         <v>15</v>
       </c>
       <c r="G19" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -1076,7 +1082,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -1093,13 +1099,13 @@
         <v>13</v>
       </c>
       <c r="E21" t="s" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -1122,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -1145,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1168,7 +1174,7 @@
         <v>11</v>
       </c>
       <c r="G24" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -1191,7 +1197,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -1214,7 +1220,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -1237,7 +1243,7 @@
         <v>11</v>
       </c>
       <c r="G27" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1247,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1290,22 +1296,22 @@
         <v>2.0</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
@@ -1313,22 +1319,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s" s="1">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s" s="1">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="1">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
@@ -1336,22 +1342,22 @@
         <v>2.0</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s" s="1">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s" s="1">
-        <v>125</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -1359,22 +1365,22 @@
         <v>2.0</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s" s="1">
         <v>26</v>
       </c>
       <c r="G5" t="s" s="1">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6">
@@ -1382,22 +1388,22 @@
         <v>2.0</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F6" t="s" s="1">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s" s="1">
-        <v>115</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7">
@@ -1405,22 +1411,22 @@
         <v>2.0</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F7" t="s" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s" s="1">
-        <v>145</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -1428,22 +1434,22 @@
         <v>2.0</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s" s="1">
         <v>26</v>
       </c>
       <c r="G8" t="s" s="1">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1451,22 +1457,22 @@
         <v>2.0</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s" s="1">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s" s="1">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
@@ -1474,22 +1480,22 @@
         <v>2.0</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s" s="1">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -1497,22 +1503,22 @@
         <v>2.0</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s" s="1">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -1520,22 +1526,22 @@
         <v>2.0</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F12" t="s" s="1">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s" s="1">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -1543,22 +1549,22 @@
         <v>2.0</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s" s="1">
         <v>26</v>
       </c>
       <c r="G13" t="s" s="1">
-        <v>139</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -1566,22 +1572,22 @@
         <v>2.0</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s" s="1">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s" s="1">
         <v>26</v>
       </c>
       <c r="G14" t="s" s="1">
-        <v>33</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -1589,22 +1595,22 @@
         <v>2.0</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s" s="1">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F15" t="s" s="1">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s" s="1">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
@@ -1612,22 +1618,22 @@
         <v>2.0</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s" s="1">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s" s="1">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s" s="1">
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
@@ -1635,22 +1641,22 @@
         <v>2.0</v>
       </c>
       <c r="B17" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s" s="1">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s" s="1">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s" s="1">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="1">
-        <v>128</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -1658,13 +1664,13 @@
         <v>2.0</v>
       </c>
       <c r="B18" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s" s="1">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s" s="1">
         <v>25</v>
@@ -1673,7 +1679,7 @@
         <v>26</v>
       </c>
       <c r="G18" t="s" s="1">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -1681,22 +1687,22 @@
         <v>2.0</v>
       </c>
       <c r="B19" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s" s="1">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s" s="1">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="1">
-        <v>129</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -1704,22 +1710,22 @@
         <v>2.0</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s" s="1">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s" s="1">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s" s="1">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="1">
-        <v>130</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -1727,22 +1733,22 @@
         <v>2.0</v>
       </c>
       <c r="B21" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s" s="1">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s" s="1">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s" s="1">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="1">
-        <v>131</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -1750,22 +1756,22 @@
         <v>2.0</v>
       </c>
       <c r="B22" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s" s="1">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s" s="1">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -1773,22 +1779,22 @@
         <v>2.0</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s" s="1">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s" s="1">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="1">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1796,91 +1802,22 @@
         <v>2.0</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s" s="1">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s" s="1">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s" s="1">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B25" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="C25" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s" s="1">
-        <v>144</v>
-      </c>
-      <c r="E25" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s" s="1">
-        <v>79</v>
-      </c>
-      <c r="G25" t="s" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B26" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="C26" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s" s="1">
-        <v>144</v>
-      </c>
-      <c r="E26" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s" s="1">
-        <v>79</v>
-      </c>
-      <c r="G26" t="s" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B27" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="C27" t="s" s="1">
-        <v>144</v>
-      </c>
-      <c r="D27" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="E27" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1890,7 +1827,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1933,22 +1870,22 @@
         <v>3.0</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
@@ -1956,22 +1893,22 @@
         <v>3.0</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s" s="1">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s" s="1">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s" s="1">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -1979,22 +1916,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s" s="1">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s" s="1">
-        <v>125</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -2002,22 +1939,22 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s" s="1">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s" s="1">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
@@ -2025,22 +1962,22 @@
         <v>3.0</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s" s="1">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s" s="1">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
@@ -2048,22 +1985,22 @@
         <v>3.0</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s" s="1">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s" s="1">
-        <v>22</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
@@ -2071,22 +2008,22 @@
         <v>3.0</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s" s="1">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="1">
-        <v>22</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
@@ -2094,22 +2031,22 @@
         <v>3.0</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s" s="1">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="1">
-        <v>22</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
@@ -2117,22 +2054,22 @@
         <v>3.0</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s" s="1">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s" s="1">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s" s="1">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="G10" t="s" s="1">
-        <v>84</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11">
@@ -2140,22 +2077,22 @@
         <v>3.0</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s" s="1">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s" s="1">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s" s="1">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
@@ -2163,22 +2100,22 @@
         <v>3.0</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s" s="1">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s" s="1">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s" s="1">
         <v>86</v>
-      </c>
-      <c r="F12" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s" s="1">
-        <v>157</v>
       </c>
     </row>
     <row r="13">
@@ -2186,22 +2123,22 @@
         <v>3.0</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s" s="1">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s" s="1">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s" s="1">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s" s="1">
-        <v>159</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -2209,22 +2146,22 @@
         <v>3.0</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s" s="1">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s" s="1">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s" s="1">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="1">
-        <v>159</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -2232,22 +2169,22 @@
         <v>3.0</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s" s="1">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s" s="1">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s" s="1">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="F15" t="s" s="1">
         <v>11</v>
       </c>
       <c r="G15" t="s" s="1">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -2255,22 +2192,22 @@
         <v>3.0</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s" s="1">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s" s="1">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s" s="1">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s" s="1">
-        <v>159</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -2278,22 +2215,22 @@
         <v>3.0</v>
       </c>
       <c r="B17" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s" s="1">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s" s="1">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s" s="1">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s" s="1">
-        <v>145</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -2301,22 +2238,22 @@
         <v>3.0</v>
       </c>
       <c r="B18" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s" s="1">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s" s="1">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s" s="1">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s" s="1">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s" s="1">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -2324,22 +2261,22 @@
         <v>3.0</v>
       </c>
       <c r="B19" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s" s="1">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s" s="1">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s" s="1">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s" s="1">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
@@ -2347,22 +2284,22 @@
         <v>3.0</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s" s="1">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="D20" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s" s="1">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s" s="1">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s" s="1">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -2370,22 +2307,22 @@
         <v>3.0</v>
       </c>
       <c r="B21" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s" s="1">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s" s="1">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s" s="1">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s" s="1">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="1">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -2393,22 +2330,22 @@
         <v>3.0</v>
       </c>
       <c r="B22" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s" s="1">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s" s="1">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s" s="1">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s" s="1">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -2416,22 +2353,22 @@
         <v>3.0</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s" s="1">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s" s="1">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s" s="1">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s" s="1">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24">
@@ -2439,22 +2376,22 @@
         <v>3.0</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s" s="1">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s" s="1">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s" s="1">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s" s="1">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G24" t="s" s="1">
-        <v>89</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25">
@@ -2462,22 +2399,22 @@
         <v>3.0</v>
       </c>
       <c r="B25" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s" s="1">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s" s="1">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s" s="1">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26">
@@ -2485,22 +2422,22 @@
         <v>3.0</v>
       </c>
       <c r="B26" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s" s="1">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s" s="1">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s" s="1">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s" s="1">
-        <v>29</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27">
@@ -2508,22 +2445,22 @@
         <v>3.0</v>
       </c>
       <c r="B27" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s" s="1">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s" s="1">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s" s="1">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="F27" t="s" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G27" t="s" s="1">
-        <v>29</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28">
@@ -2531,22 +2468,22 @@
         <v>3.0</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s" s="1">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="D28" t="s" s="1">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="E28" t="s" s="1">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s" s="1">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s" s="1">
-        <v>90</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -2554,22 +2491,22 @@
         <v>3.0</v>
       </c>
       <c r="B29" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s" s="1">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="D29" t="s" s="1">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s" s="1">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s" s="1">
         <v>15</v>
       </c>
       <c r="G29" t="s" s="1">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30">
@@ -2577,22 +2514,22 @@
         <v>3.0</v>
       </c>
       <c r="B30" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s" s="1">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s" s="1">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s" s="1">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s" s="1">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s" s="1">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31">
@@ -2600,22 +2537,22 @@
         <v>3.0</v>
       </c>
       <c r="B31" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s" s="1">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="D31" t="s" s="1">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s" s="1">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s" s="1">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="1">
-        <v>31</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
@@ -2623,22 +2560,22 @@
         <v>3.0</v>
       </c>
       <c r="B32" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s" s="1">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s" s="1">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s" s="1">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s" s="1">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="G32" t="s" s="1">
-        <v>31</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33">
@@ -2646,22 +2583,22 @@
         <v>3.0</v>
       </c>
       <c r="B33" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s" s="1">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s" s="1">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s" s="1">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="1">
-        <v>31</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34">
@@ -2669,22 +2606,22 @@
         <v>3.0</v>
       </c>
       <c r="B34" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s" s="1">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s" s="1">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s" s="1">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="G34" t="s" s="1">
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35">
@@ -2692,22 +2629,22 @@
         <v>3.0</v>
       </c>
       <c r="B35" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C35" t="s" s="1">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s" s="1">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="E35" t="s" s="1">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s" s="1">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s" s="1">
-        <v>162</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
@@ -2715,22 +2652,22 @@
         <v>3.0</v>
       </c>
       <c r="B36" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s" s="1">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D36" t="s" s="1">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s" s="1">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s" s="1">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="G36" t="s" s="1">
-        <v>162</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
@@ -2738,22 +2675,22 @@
         <v>3.0</v>
       </c>
       <c r="B37" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s" s="1">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s" s="1">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s" s="1">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s" s="1">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="1">
-        <v>163</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
@@ -2761,22 +2698,22 @@
         <v>3.0</v>
       </c>
       <c r="B38" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s" s="1">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s" s="1">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s" s="1">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="1">
-        <v>163</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -2784,22 +2721,22 @@
         <v>3.0</v>
       </c>
       <c r="B39" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s" s="1">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s" s="1">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s" s="1">
-        <v>163</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
@@ -2807,22 +2744,22 @@
         <v>3.0</v>
       </c>
       <c r="B40" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s" s="1">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s" s="1">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F40" t="s" s="1">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="1">
-        <v>92</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41">
@@ -2830,22 +2767,22 @@
         <v>3.0</v>
       </c>
       <c r="B41" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s" s="1">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s" s="1">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E41" t="s" s="1">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s" s="1">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s" s="1">
-        <v>92</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
@@ -2853,22 +2790,22 @@
         <v>3.0</v>
       </c>
       <c r="B42" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s" s="1">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s" s="1">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="E42" t="s" s="1">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s" s="1">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="G42" t="s" s="1">
-        <v>92</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43">
@@ -2876,22 +2813,22 @@
         <v>3.0</v>
       </c>
       <c r="B43" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s" s="1">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s" s="1">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s" s="1">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
@@ -2899,22 +2836,22 @@
         <v>3.0</v>
       </c>
       <c r="B44" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s" s="1">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E44" t="s" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F44" t="s" s="1">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="1">
-        <v>34</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
@@ -2922,22 +2859,22 @@
         <v>3.0</v>
       </c>
       <c r="B45" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s" s="1">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s" s="1">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="E45" t="s" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F45" t="s" s="1">
         <v>11</v>
       </c>
       <c r="G45" t="s" s="1">
-        <v>34</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -2945,22 +2882,22 @@
         <v>3.0</v>
       </c>
       <c r="B46" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s" s="1">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s" s="1">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F46" t="s" s="1">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s" s="1">
-        <v>93</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47">
@@ -2968,22 +2905,22 @@
         <v>3.0</v>
       </c>
       <c r="B47" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s" s="1">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D47" t="s" s="1">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E47" t="s" s="1">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s" s="1">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s" s="1">
-        <v>164</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48">
@@ -2991,22 +2928,22 @@
         <v>3.0</v>
       </c>
       <c r="B48" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s" s="1">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s" s="1">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s" s="1">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s" s="1">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="G48" t="s" s="1">
-        <v>164</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49">
@@ -3014,22 +2951,22 @@
         <v>3.0</v>
       </c>
       <c r="B49" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s" s="1">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s" s="1">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E49" t="s" s="1">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s" s="1">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="G49" t="s" s="1">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50">
@@ -3037,22 +2974,22 @@
         <v>3.0</v>
       </c>
       <c r="B50" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s" s="1">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s" s="1">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="E50" t="s" s="1">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="F50" t="s" s="1">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="1">
-        <v>36</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
@@ -3060,22 +2997,22 @@
         <v>3.0</v>
       </c>
       <c r="B51" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s" s="1">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s" s="1">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s" s="1">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s" s="1">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="G51" t="s" s="1">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52">
@@ -3083,22 +3020,22 @@
         <v>3.0</v>
       </c>
       <c r="B52" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s" s="1">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s" s="1">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s" s="1">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="1">
-        <v>128</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53">
@@ -3106,22 +3043,22 @@
         <v>3.0</v>
       </c>
       <c r="B53" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C53" t="s" s="1">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D53" t="s" s="1">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s" s="1">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s" s="1">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s" s="1">
-        <v>95</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
@@ -3129,22 +3066,22 @@
         <v>3.0</v>
       </c>
       <c r="B54" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s" s="1">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D54" t="s" s="1">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E54" t="s" s="1">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s" s="1">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="G54" t="s" s="1">
-        <v>166</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
@@ -3152,22 +3089,22 @@
         <v>3.0</v>
       </c>
       <c r="B55" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s" s="1">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D55" t="s" s="1">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E55" t="s" s="1">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s" s="1">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="G55" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56">
@@ -3175,22 +3112,22 @@
         <v>3.0</v>
       </c>
       <c r="B56" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s" s="1">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s" s="1">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="E56" t="s" s="1">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="F56" t="s" s="1">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="1">
-        <v>37</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57">
@@ -3198,22 +3135,22 @@
         <v>3.0</v>
       </c>
       <c r="B57" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s" s="1">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="D57" t="s" s="1">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="E57" t="s" s="1">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s" s="1">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s" s="1">
-        <v>37</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58">
@@ -3221,22 +3158,22 @@
         <v>3.0</v>
       </c>
       <c r="B58" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s" s="1">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s" s="1">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="E58" t="s" s="1">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s" s="1">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s" s="1">
-        <v>129</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59">
@@ -3244,22 +3181,22 @@
         <v>3.0</v>
       </c>
       <c r="B59" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s" s="1">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="D59" t="s" s="1">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E59" t="s" s="1">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s" s="1">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s" s="1">
-        <v>96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60">
@@ -3267,22 +3204,22 @@
         <v>3.0</v>
       </c>
       <c r="B60" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C60" t="s" s="1">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D60" t="s" s="1">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E60" t="s" s="1">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s" s="1">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="G60" t="s" s="1">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61">
@@ -3290,22 +3227,22 @@
         <v>3.0</v>
       </c>
       <c r="B61" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s" s="1">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D61" t="s" s="1">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="E61" t="s" s="1">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="F61" t="s" s="1">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="G61" t="s" s="1">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62">
@@ -3313,22 +3250,22 @@
         <v>3.0</v>
       </c>
       <c r="B62" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C62" t="s" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D62" t="s" s="1">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E62" t="s" s="1">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="F62" t="s" s="1">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="G62" t="s" s="1">
-        <v>57</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63">
@@ -3336,22 +3273,22 @@
         <v>3.0</v>
       </c>
       <c r="B63" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s" s="1">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D63" t="s" s="1">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="E63" t="s" s="1">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F63" t="s" s="1">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="1">
-        <v>57</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64">
@@ -3359,22 +3296,22 @@
         <v>3.0</v>
       </c>
       <c r="B64" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s" s="1">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s" s="1">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="E64" t="s" s="1">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="F64" t="s" s="1">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="G64" t="s" s="1">
-        <v>130</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
@@ -3382,22 +3319,22 @@
         <v>3.0</v>
       </c>
       <c r="B65" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C65" t="s" s="1">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D65" t="s" s="1">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="E65" t="s" s="1">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s" s="1">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s" s="1">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
@@ -3405,22 +3342,22 @@
         <v>3.0</v>
       </c>
       <c r="B66" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s" s="1">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="D66" t="s" s="1">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="E66" t="s" s="1">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s" s="1">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="G66" t="s" s="1">
-        <v>168</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67">
@@ -3428,22 +3365,22 @@
         <v>3.0</v>
       </c>
       <c r="B67" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s" s="1">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="D67" t="s" s="1">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="E67" t="s" s="1">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="F67" t="s" s="1">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="G67" t="s" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68">
@@ -3451,22 +3388,22 @@
         <v>3.0</v>
       </c>
       <c r="B68" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C68" t="s" s="1">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="D68" t="s" s="1">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E68" t="s" s="1">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="F68" t="s" s="1">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="G68" t="s" s="1">
-        <v>38</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69">
@@ -3474,22 +3411,22 @@
         <v>3.0</v>
       </c>
       <c r="B69" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D69" t="s" s="1">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E69" t="s" s="1">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F69" t="s" s="1">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="1">
-        <v>38</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70">
@@ -3497,22 +3434,22 @@
         <v>3.0</v>
       </c>
       <c r="B70" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C70" t="s" s="1">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="D70" t="s" s="1">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E70" t="s" s="1">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="F70" t="s" s="1">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="G70" t="s" s="1">
-        <v>131</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71">
@@ -3520,22 +3457,22 @@
         <v>3.0</v>
       </c>
       <c r="B71" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s" s="1">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D71" t="s" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E71" t="s" s="1">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s" s="1">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s" s="1">
-        <v>98</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72">
@@ -3543,22 +3480,22 @@
         <v>3.0</v>
       </c>
       <c r="B72" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s" s="1">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s" s="1">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="E72" t="s" s="1">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="F72" t="s" s="1">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="G72" t="s" s="1">
-        <v>169</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73">
@@ -3566,22 +3503,22 @@
         <v>3.0</v>
       </c>
       <c r="B73" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s" s="1">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="D73" t="s" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E73" t="s" s="1">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="F73" t="s" s="1">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="G73" t="s" s="1">
-        <v>39</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74">
@@ -3589,22 +3526,22 @@
         <v>3.0</v>
       </c>
       <c r="B74" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s" s="1">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D74" t="s" s="1">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="E74" t="s" s="1">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="F74" t="s" s="1">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="1">
-        <v>39</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75">
@@ -3612,22 +3549,22 @@
         <v>3.0</v>
       </c>
       <c r="B75" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s" s="1">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D75" t="s" s="1">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s" s="1">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="F75" t="s" s="1">
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="G75" t="s" s="1">
-        <v>39</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76">
@@ -3635,22 +3572,22 @@
         <v>3.0</v>
       </c>
       <c r="B76" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C76" t="s" s="1">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D76" t="s" s="1">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="E76" t="s" s="1">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F76" t="s" s="1">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="G76" t="s" s="1">
-        <v>140</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77">
@@ -3658,22 +3595,22 @@
         <v>3.0</v>
       </c>
       <c r="B77" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C77" t="s" s="1">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D77" t="s" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E77" t="s" s="1">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F77" t="s" s="1">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="G77" t="s" s="1">
-        <v>140</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78">
@@ -3681,22 +3618,22 @@
         <v>3.0</v>
       </c>
       <c r="B78" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C78" t="s" s="1">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D78" t="s" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E78" t="s" s="1">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="F78" t="s" s="1">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="G78" t="s" s="1">
-        <v>170</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
@@ -3704,22 +3641,22 @@
         <v>3.0</v>
       </c>
       <c r="B79" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C79" t="s" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D79" t="s" s="1">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E79" t="s" s="1">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s" s="1">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="1">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80">
@@ -3727,22 +3664,22 @@
         <v>3.0</v>
       </c>
       <c r="B80" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C80" t="s" s="1">
         <v>154</v>
       </c>
       <c r="D80" t="s" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E80" t="s" s="1">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="F80" t="s" s="1">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="G80" t="s" s="1">
-        <v>40</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81">
@@ -3750,22 +3687,22 @@
         <v>3.0</v>
       </c>
       <c r="B81" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C81" t="s" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D81" t="s" s="1">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E81" t="s" s="1">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s" s="1">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="G81" t="s" s="1">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82">
@@ -3773,22 +3710,22 @@
         <v>3.0</v>
       </c>
       <c r="B82" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C82" t="s" s="1">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="D82" t="s" s="1">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E82" t="s" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F82" t="s" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s" s="1">
-        <v>141</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83">
@@ -3796,321 +3733,22 @@
         <v>3.0</v>
       </c>
       <c r="B83" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C83" t="s" s="1">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="D83" t="s" s="1">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="E83" t="s" s="1">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s" s="1">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="G83" t="s" s="1">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B84" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="C84" t="s" s="1">
-        <v>152</v>
-      </c>
-      <c r="D84" t="s" s="1">
-        <v>149</v>
-      </c>
-      <c r="E84" t="s" s="1">
-        <v>86</v>
-      </c>
-      <c r="F84" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="G84" t="s" s="1">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B85" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="C85" t="s" s="1">
-        <v>122</v>
-      </c>
-      <c r="D85" t="s" s="1">
-        <v>149</v>
-      </c>
-      <c r="E85" t="s" s="1">
-        <v>155</v>
-      </c>
-      <c r="F85" t="s" s="1">
-        <v>165</v>
-      </c>
-      <c r="G85" t="s" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B86" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="C86" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="D86" t="s" s="1">
-        <v>158</v>
-      </c>
-      <c r="E86" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="F86" t="s" s="1">
         <v>109</v>
-      </c>
-      <c r="G86" t="s" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B87" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="C87" t="s" s="1">
-        <v>152</v>
-      </c>
-      <c r="D87" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="E87" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="F87" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="G87" t="s" s="1">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B88" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="C88" t="s" s="1">
-        <v>81</v>
-      </c>
-      <c r="D88" t="s" s="1">
-        <v>148</v>
-      </c>
-      <c r="E88" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="F88" t="s" s="1">
-        <v>79</v>
-      </c>
-      <c r="G88" t="s" s="1">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B89" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="C89" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="D89" t="s" s="1">
-        <v>148</v>
-      </c>
-      <c r="E89" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="F89" t="s" s="1">
-        <v>109</v>
-      </c>
-      <c r="G89" t="s" s="1">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B90" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="C90" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="D90" t="s" s="1">
-        <v>158</v>
-      </c>
-      <c r="E90" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="F90" t="s" s="1">
-        <v>109</v>
-      </c>
-      <c r="G90" t="s" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B91" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="C91" t="s" s="1">
-        <v>150</v>
-      </c>
-      <c r="D91" t="s" s="1">
-        <v>158</v>
-      </c>
-      <c r="E91" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="F91" t="s" s="1">
-        <v>109</v>
-      </c>
-      <c r="G91" t="s" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B92" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="C92" t="s" s="1">
-        <v>150</v>
-      </c>
-      <c r="D92" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="E92" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F92" t="s" s="1">
-        <v>79</v>
-      </c>
-      <c r="G92" t="s" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B93" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="C93" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="D93" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="E93" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="F93" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="G93" t="s" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B94" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="C94" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="D94" t="s" s="1">
-        <v>81</v>
-      </c>
-      <c r="E94" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="F94" t="s" s="1">
-        <v>173</v>
-      </c>
-      <c r="G94" t="s" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B95" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="C95" t="s" s="1">
-        <v>149</v>
-      </c>
-      <c r="D95" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="E95" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="F95" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B96" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="C96" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="D96" t="s" s="1">
-        <v>150</v>
-      </c>
-      <c r="E96" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="F96" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="G96" t="s" s="1">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4120,7 +3758,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4166,13 +3804,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s" s="1">
         <v>11</v>
@@ -4189,10 +3827,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s" s="1">
         <v>25</v>
@@ -4212,13 +3850,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s" s="1">
         <v>11</v>
@@ -4235,13 +3873,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s" s="1">
         <v>15</v>
@@ -4258,10 +3896,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s" s="1">
         <v>10</v>
@@ -4281,10 +3919,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s" s="1">
         <v>25</v>
@@ -4304,10 +3942,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s" s="1">
         <v>10</v>
@@ -4327,19 +3965,19 @@
         <v>7</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -4350,13 +3988,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s" s="1">
         <v>11</v>
@@ -4373,10 +4011,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s" s="1">
         <v>10</v>
@@ -4399,16 +4037,16 @@
         <v>46</v>
       </c>
       <c r="D12" t="s" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s" s="1">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s" s="1">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -4419,19 +4057,19 @@
         <v>7</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s" s="1">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s" s="1">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s" s="1">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -4442,19 +4080,19 @@
         <v>7</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s" s="1">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -4465,10 +4103,10 @@
         <v>7</v>
       </c>
       <c r="C15" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s" s="1">
         <v>10</v>
@@ -4477,7 +4115,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="s" s="1">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -4488,19 +4126,19 @@
         <v>7</v>
       </c>
       <c r="C16" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="D16" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s" s="1">
-        <v>25</v>
-      </c>
       <c r="F16" t="s" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s" s="1">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -4511,19 +4149,19 @@
         <v>7</v>
       </c>
       <c r="C17" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="D17" t="s" s="1">
-        <v>49</v>
-      </c>
       <c r="E17" t="s" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -4534,19 +4172,19 @@
         <v>7</v>
       </c>
       <c r="C18" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s" s="1">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s" s="1">
         <v>11</v>
       </c>
       <c r="G18" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -4557,10 +4195,10 @@
         <v>7</v>
       </c>
       <c r="C19" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s" s="1">
         <v>25</v>
@@ -4569,7 +4207,7 @@
         <v>26</v>
       </c>
       <c r="G19" t="s" s="1">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -4583,16 +4221,16 @@
         <v>46</v>
       </c>
       <c r="D20" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s" s="1">
         <v>48</v>
-      </c>
-      <c r="E20" t="s" s="1">
-        <v>10</v>
       </c>
       <c r="F20" t="s" s="1">
         <v>11</v>
       </c>
       <c r="G20" t="s" s="1">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
@@ -4603,19 +4241,19 @@
         <v>7</v>
       </c>
       <c r="C21" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -4626,13 +4264,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s" s="1">
         <v>49</v>
       </c>
       <c r="E22" t="s" s="1">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s" s="1">
         <v>11</v>
@@ -4649,10 +4287,10 @@
         <v>7</v>
       </c>
       <c r="C23" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s" s="1">
         <v>14</v>
@@ -4661,7 +4299,7 @@
         <v>15</v>
       </c>
       <c r="G23" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -4675,10 +4313,10 @@
         <v>46</v>
       </c>
       <c r="D24" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s" s="1">
         <v>48</v>
-      </c>
-      <c r="E24" t="s" s="1">
-        <v>10</v>
       </c>
       <c r="F24" t="s" s="1">
         <v>11</v>
@@ -4695,10 +4333,10 @@
         <v>7</v>
       </c>
       <c r="C25" t="s" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s" s="1">
         <v>14</v>
@@ -4707,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="G25" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -4718,13 +4356,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s" s="1">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s" s="1">
         <v>11</v>
@@ -4741,10 +4379,10 @@
         <v>7</v>
       </c>
       <c r="C27" t="s" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s" s="1">
         <v>14</v>
@@ -4753,7 +4391,7 @@
         <v>15</v>
       </c>
       <c r="G27" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -4767,10 +4405,10 @@
         <v>46</v>
       </c>
       <c r="D28" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s" s="1">
         <v>48</v>
-      </c>
-      <c r="E28" t="s" s="1">
-        <v>10</v>
       </c>
       <c r="F28" t="s" s="1">
         <v>11</v>
@@ -4787,10 +4425,10 @@
         <v>7</v>
       </c>
       <c r="C29" t="s" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s" s="1">
         <v>14</v>
@@ -4799,7 +4437,7 @@
         <v>15</v>
       </c>
       <c r="G29" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -4810,13 +4448,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s" s="1">
         <v>46</v>
       </c>
       <c r="E30" t="s" s="1">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s" s="1">
         <v>11</v>
@@ -4833,10 +4471,10 @@
         <v>7</v>
       </c>
       <c r="C31" t="s" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s" s="1">
         <v>14</v>
@@ -4845,7 +4483,7 @@
         <v>15</v>
       </c>
       <c r="G31" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -4856,19 +4494,19 @@
         <v>7</v>
       </c>
       <c r="C32" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s" s="1">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -4879,19 +4517,19 @@
         <v>7</v>
       </c>
       <c r="C33" t="s" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s" s="1">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
@@ -4902,65 +4540,19 @@
         <v>7</v>
       </c>
       <c r="C34" t="s" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s" s="1">
         <v>49</v>
       </c>
       <c r="E34" t="s" s="1">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B35" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="D35" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="E35" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B36" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="D36" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="E36" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="F36" t="s" s="1">
         <v>68</v>
-      </c>
-      <c r="G36" t="s" s="1">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4970,7 +4562,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5016,10 +4608,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s" s="1">
         <v>70</v>
-      </c>
-      <c r="D2" t="s" s="1">
-        <v>71</v>
       </c>
       <c r="E2" t="s" s="1">
         <v>10</v>
@@ -5039,13 +4631,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="D3" t="s" s="1">
-        <v>73</v>
-      </c>
       <c r="E3" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s" s="1">
         <v>26</v>
@@ -5062,19 +4654,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s" s="1">
         <v>74</v>
-      </c>
-      <c r="E4" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="G4" t="s" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -5085,19 +4677,19 @@
         <v>7</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s" s="1">
         <v>14</v>
       </c>
       <c r="F5" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s" s="1">
         <v>77</v>
-      </c>
-      <c r="G5" t="s" s="1">
-        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -5108,13 +4700,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s" s="1">
         <v>26</v>
@@ -5131,16 +4723,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F7" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="1">
         <v>17</v>
@@ -5154,10 +4746,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s" s="1">
         <v>19</v>
@@ -5177,10 +4769,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s" s="1">
         <v>19</v>
@@ -5189,7 +4781,7 @@
         <v>11</v>
       </c>
       <c r="G9" t="s" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -5200,13 +4792,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="D10" t="s" s="1">
-        <v>73</v>
-      </c>
       <c r="E10" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s" s="1">
         <v>11</v>
@@ -5223,16 +4815,16 @@
         <v>7</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F11" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="1">
         <v>21</v>
@@ -5246,19 +4838,19 @@
         <v>7</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -5269,10 +4861,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s" s="1">
         <v>19</v>
@@ -5281,7 +4873,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="s" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -5292,10 +4884,10 @@
         <v>7</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s" s="1">
         <v>19</v>
@@ -5315,16 +4907,16 @@
         <v>7</v>
       </c>
       <c r="C15" t="s" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F15" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="1">
         <v>23</v>
@@ -5338,10 +4930,10 @@
         <v>7</v>
       </c>
       <c r="C16" t="s" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s" s="1">
         <v>19</v>
@@ -5350,7 +4942,7 @@
         <v>11</v>
       </c>
       <c r="G16" t="s" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -5361,19 +4953,19 @@
         <v>7</v>
       </c>
       <c r="C17" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s" s="1">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s" s="1">
         <v>86</v>
-      </c>
-      <c r="F17" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s" s="1">
-        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -5384,10 +4976,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="s" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s" s="1">
         <v>19</v>
@@ -5407,16 +4999,16 @@
         <v>7</v>
       </c>
       <c r="C19" t="s" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F19" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="1">
         <v>24</v>
@@ -5430,10 +5022,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="s" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s" s="1">
         <v>19</v>
@@ -5442,7 +5034,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -5453,19 +5045,19 @@
         <v>7</v>
       </c>
       <c r="C21" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s" s="1">
         <v>26</v>
       </c>
       <c r="G21" t="s" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -5476,10 +5068,10 @@
         <v>7</v>
       </c>
       <c r="C22" t="s" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s" s="1">
         <v>19</v>
@@ -5499,16 +5091,16 @@
         <v>7</v>
       </c>
       <c r="C23" t="s" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F23" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="1">
         <v>28</v>
@@ -5522,10 +5114,10 @@
         <v>7</v>
       </c>
       <c r="C24" t="s" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s" s="1">
         <v>14</v>
@@ -5545,10 +5137,10 @@
         <v>7</v>
       </c>
       <c r="C25" t="s" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s" s="1">
         <v>19</v>
@@ -5557,7 +5149,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="s" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -5568,13 +5160,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s" s="1">
         <v>11</v>
@@ -5591,16 +5183,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="s" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F27" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="1">
         <v>30</v>
@@ -5614,10 +5206,10 @@
         <v>7</v>
       </c>
       <c r="C28" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s" s="1">
         <v>72</v>
-      </c>
-      <c r="D28" t="s" s="1">
-        <v>73</v>
       </c>
       <c r="E28" t="s" s="1">
         <v>14</v>
@@ -5637,10 +5229,10 @@
         <v>7</v>
       </c>
       <c r="C29" t="s" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s" s="1">
         <v>19</v>
@@ -5649,7 +5241,7 @@
         <v>11</v>
       </c>
       <c r="G29" t="s" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -5660,19 +5252,19 @@
         <v>7</v>
       </c>
       <c r="C30" t="s" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s" s="1">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s" s="1">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="1">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -5683,19 +5275,19 @@
         <v>7</v>
       </c>
       <c r="C31" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s" s="1">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="1">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -5706,19 +5298,19 @@
         <v>7</v>
       </c>
       <c r="C32" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s" s="1">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s" s="1">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s" s="1">
         <v>15</v>
       </c>
       <c r="G32" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -5729,19 +5321,19 @@
         <v>7</v>
       </c>
       <c r="C33" t="s" s="1">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s" s="1">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s" s="1">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
@@ -5752,19 +5344,19 @@
         <v>7</v>
       </c>
       <c r="C34" t="s" s="1">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s" s="1">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s" s="1">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s" s="1">
         <v>11</v>
       </c>
       <c r="G34" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
@@ -5775,19 +5367,19 @@
         <v>7</v>
       </c>
       <c r="C35" t="s" s="1">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s" s="1">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s" s="1">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -5801,16 +5393,16 @@
         <v>72</v>
       </c>
       <c r="D36" t="s" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F36" t="s" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G36" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
@@ -5821,7 +5413,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="s" s="1">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s" s="1">
         <v>71</v>
@@ -5830,10 +5422,10 @@
         <v>19</v>
       </c>
       <c r="F37" t="s" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G37" t="s" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38">
@@ -5844,19 +5436,19 @@
         <v>7</v>
       </c>
       <c r="C38" t="s" s="1">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s" s="1">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s" s="1">
         <v>11</v>
       </c>
       <c r="G38" t="s" s="1">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
@@ -5867,7 +5459,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="s" s="1">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s" s="1">
         <v>72</v>
@@ -5876,10 +5468,10 @@
         <v>94</v>
       </c>
       <c r="F39" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="1">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
@@ -5890,10 +5482,10 @@
         <v>7</v>
       </c>
       <c r="C40" t="s" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s" s="1">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E40" t="s" s="1">
         <v>19</v>
@@ -5902,7 +5494,7 @@
         <v>26</v>
       </c>
       <c r="G40" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
@@ -5913,10 +5505,10 @@
         <v>7</v>
       </c>
       <c r="C41" t="s" s="1">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s" s="1">
         <v>19</v>
@@ -5925,7 +5517,7 @@
         <v>26</v>
       </c>
       <c r="G41" t="s" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
@@ -5936,10 +5528,10 @@
         <v>7</v>
       </c>
       <c r="C42" t="s" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E42" t="s" s="1">
         <v>19</v>
@@ -5948,7 +5540,7 @@
         <v>11</v>
       </c>
       <c r="G42" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
@@ -5959,19 +5551,19 @@
         <v>7</v>
       </c>
       <c r="C43" t="s" s="1">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s" s="1">
         <v>94</v>
       </c>
       <c r="F43" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44">
@@ -5982,10 +5574,10 @@
         <v>7</v>
       </c>
       <c r="C44" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s" s="1">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E44" t="s" s="1">
         <v>19</v>
@@ -5994,7 +5586,7 @@
         <v>26</v>
       </c>
       <c r="G44" t="s" s="1">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45">
@@ -6005,10 +5597,10 @@
         <v>7</v>
       </c>
       <c r="C45" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E45" t="s" s="1">
         <v>19</v>
@@ -6017,7 +5609,7 @@
         <v>26</v>
       </c>
       <c r="G45" t="s" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46">
@@ -6028,7 +5620,7 @@
         <v>7</v>
       </c>
       <c r="C46" t="s" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s" s="1">
         <v>70</v>
@@ -6040,7 +5632,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47">
@@ -6051,19 +5643,19 @@
         <v>7</v>
       </c>
       <c r="C47" t="s" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s" s="1">
         <v>94</v>
       </c>
       <c r="F47" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48">
@@ -6074,10 +5666,10 @@
         <v>7</v>
       </c>
       <c r="C48" t="s" s="1">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E48" t="s" s="1">
         <v>19</v>
@@ -6086,7 +5678,7 @@
         <v>26</v>
       </c>
       <c r="G48" t="s" s="1">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49">
@@ -6097,10 +5689,10 @@
         <v>7</v>
       </c>
       <c r="C49" t="s" s="1">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s" s="1">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E49" t="s" s="1">
         <v>19</v>
@@ -6109,7 +5701,7 @@
         <v>26</v>
       </c>
       <c r="G49" t="s" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50">
@@ -6120,10 +5712,10 @@
         <v>7</v>
       </c>
       <c r="C50" t="s" s="1">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D50" t="s" s="1">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s" s="1">
         <v>19</v>
@@ -6132,7 +5724,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="s" s="1">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51">
@@ -6143,19 +5735,19 @@
         <v>7</v>
       </c>
       <c r="C51" t="s" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s" s="1">
         <v>94</v>
       </c>
       <c r="F51" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="1">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52">
@@ -6166,7 +5758,7 @@
         <v>7</v>
       </c>
       <c r="C52" t="s" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D52" t="s" s="1">
         <v>80</v>
@@ -6175,10 +5767,10 @@
         <v>19</v>
       </c>
       <c r="F52" t="s" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G52" t="s" s="1">
-        <v>38</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53">
@@ -6189,19 +5781,19 @@
         <v>7</v>
       </c>
       <c r="C53" t="s" s="1">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D53" t="s" s="1">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E53" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F53" t="s" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s" s="1">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54">
@@ -6212,16 +5804,16 @@
         <v>7</v>
       </c>
       <c r="C54" t="s" s="1">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D54" t="s" s="1">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E54" t="s" s="1">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="F54" t="s" s="1">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="1">
         <v>59</v>
@@ -6235,19 +5827,19 @@
         <v>7</v>
       </c>
       <c r="C55" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D55" t="s" s="1">
         <v>80</v>
       </c>
       <c r="E55" t="s" s="1">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="F55" t="s" s="1">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s" s="1">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
@@ -6258,10 +5850,10 @@
         <v>7</v>
       </c>
       <c r="C56" t="s" s="1">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D56" t="s" s="1">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E56" t="s" s="1">
         <v>19</v>
@@ -6270,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="G56" t="s" s="1">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
@@ -6281,16 +5873,16 @@
         <v>7</v>
       </c>
       <c r="C57" t="s" s="1">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s" s="1">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E57" t="s" s="1">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="F57" t="s" s="1">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="1">
         <v>60</v>
@@ -6304,19 +5896,19 @@
         <v>7</v>
       </c>
       <c r="C58" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="D58" t="s" s="1">
         <v>80</v>
       </c>
-      <c r="D58" t="s" s="1">
-        <v>72</v>
-      </c>
       <c r="E58" t="s" s="1">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s" s="1">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G58" t="s" s="1">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59">
@@ -6330,16 +5922,16 @@
         <v>73</v>
       </c>
       <c r="D59" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E59" t="s" s="1">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="F59" t="s" s="1">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60">
@@ -6350,10 +5942,10 @@
         <v>7</v>
       </c>
       <c r="C60" t="s" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D60" t="s" s="1">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E60" t="s" s="1">
         <v>19</v>
@@ -6362,7 +5954,7 @@
         <v>11</v>
       </c>
       <c r="G60" t="s" s="1">
-        <v>61</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61">
@@ -6373,16 +5965,16 @@
         <v>7</v>
       </c>
       <c r="C61" t="s" s="1">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D61" t="s" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E61" t="s" s="1">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s" s="1">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s" s="1">
         <v>61</v>
@@ -6396,19 +5988,19 @@
         <v>7</v>
       </c>
       <c r="C62" t="s" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D62" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E62" t="s" s="1">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="F62" t="s" s="1">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="1">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63">
@@ -6419,19 +6011,19 @@
         <v>7</v>
       </c>
       <c r="C63" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E63" t="s" s="1">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="F63" t="s" s="1">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64">
@@ -6442,10 +6034,10 @@
         <v>7</v>
       </c>
       <c r="C64" t="s" s="1">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D64" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E64" t="s" s="1">
         <v>19</v>
@@ -6454,7 +6046,7 @@
         <v>11</v>
       </c>
       <c r="G64" t="s" s="1">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65">
@@ -6465,16 +6057,16 @@
         <v>7</v>
       </c>
       <c r="C65" t="s" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D65" t="s" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E65" t="s" s="1">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="F65" t="s" s="1">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="1">
         <v>62</v>
@@ -6488,19 +6080,19 @@
         <v>7</v>
       </c>
       <c r="C66" t="s" s="1">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D66" t="s" s="1">
         <v>70</v>
       </c>
       <c r="E66" t="s" s="1">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s" s="1">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s" s="1">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
@@ -6511,10 +6103,10 @@
         <v>7</v>
       </c>
       <c r="C67" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D67" t="s" s="1">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E67" t="s" s="1">
         <v>19</v>
@@ -6523,7 +6115,7 @@
         <v>11</v>
       </c>
       <c r="G67" t="s" s="1">
-        <v>104</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68">
@@ -6537,13 +6129,13 @@
         <v>80</v>
       </c>
       <c r="D68" t="s" s="1">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E68" t="s" s="1">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="F68" t="s" s="1">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="1">
         <v>63</v>
@@ -6557,19 +6149,19 @@
         <v>7</v>
       </c>
       <c r="C69" t="s" s="1">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D69" t="s" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E69" t="s" s="1">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="F69" t="s" s="1">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s" s="1">
-        <v>63</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
@@ -6580,19 +6172,19 @@
         <v>7</v>
       </c>
       <c r="C70" t="s" s="1">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D70" t="s" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E70" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F70" t="s" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G70" t="s" s="1">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71">
@@ -6603,7 +6195,7 @@
         <v>7</v>
       </c>
       <c r="C71" t="s" s="1">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D71" t="s" s="1">
         <v>70</v>
@@ -6615,7 +6207,7 @@
         <v>11</v>
       </c>
       <c r="G71" t="s" s="1">
-        <v>64</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72">
@@ -6626,19 +6218,19 @@
         <v>7</v>
       </c>
       <c r="C72" t="s" s="1">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D72" t="s" s="1">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E72" t="s" s="1">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s" s="1">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73">
@@ -6652,16 +6244,16 @@
         <v>73</v>
       </c>
       <c r="D73" t="s" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E73" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F73" t="s" s="1">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="1">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74">
@@ -6672,19 +6264,19 @@
         <v>7</v>
       </c>
       <c r="C74" t="s" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D74" t="s" s="1">
         <v>71</v>
       </c>
       <c r="E74" t="s" s="1">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F74" t="s" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G74" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75">
@@ -6695,10 +6287,10 @@
         <v>7</v>
       </c>
       <c r="C75" t="s" s="1">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D75" t="s" s="1">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E75" t="s" s="1">
         <v>19</v>
@@ -6707,122 +6299,7 @@
         <v>26</v>
       </c>
       <c r="G75" t="s" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B76" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="D76" t="s" s="1">
-        <v>80</v>
-      </c>
-      <c r="E76" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="F76" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B77" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s" s="1">
-        <v>80</v>
-      </c>
-      <c r="D77" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="E77" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="F77" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B78" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="D78" t="s" s="1">
-        <v>81</v>
-      </c>
-      <c r="E78" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="F78" t="s" s="1">
-        <v>79</v>
-      </c>
-      <c r="G78" t="s" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B79" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="D79" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="E79" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="F79" t="s" s="1">
         <v>109</v>
-      </c>
-      <c r="G79" t="s" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B80" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="D80" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="E80" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="F80" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="G80" t="s" s="1">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -6832,7 +6309,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6875,10 +6352,10 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s" s="1">
         <v>18</v>
@@ -6887,7 +6364,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="1">
         <v>20</v>
@@ -6898,13 +6375,13 @@
         <v>0.0</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s" s="1">
         <v>9</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s" s="1">
         <v>19</v>
@@ -6921,7 +6398,7 @@
         <v>0.0</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s" s="1">
         <v>18</v>
@@ -6933,7 +6410,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="1">
         <v>23</v>
@@ -6944,13 +6421,13 @@
         <v>0.0</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s" s="1">
         <v>9</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s" s="1">
         <v>19</v>
@@ -6967,10 +6444,10 @@
         <v>0.0</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s" s="1">
         <v>18</v>
@@ -6990,7 +6467,7 @@
         <v>0.0</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s" s="1">
         <v>18</v>
@@ -7013,10 +6490,10 @@
         <v>0.0</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s" s="1">
         <v>18</v>
@@ -7025,10 +6502,10 @@
         <v>19</v>
       </c>
       <c r="F8" t="s" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s" s="1">
-        <v>53</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -7036,22 +6513,22 @@
         <v>0.0</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="D9" t="s" s="1">
-        <v>73</v>
-      </c>
       <c r="E9" t="s" s="1">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s" s="1">
         <v>26</v>
       </c>
       <c r="G9" t="s" s="1">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -7059,7 +6536,7 @@
         <v>0.0</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s" s="1">
         <v>18</v>
@@ -7074,7 +6551,7 @@
         <v>26</v>
       </c>
       <c r="G10" t="s" s="1">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -7082,7 +6559,7 @@
         <v>0.0</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s" s="1">
         <v>18</v>
@@ -7097,7 +6574,7 @@
         <v>26</v>
       </c>
       <c r="G11" t="s" s="1">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -7105,7 +6582,7 @@
         <v>0.0</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s" s="1">
         <v>18</v>
@@ -7128,7 +6605,7 @@
         <v>0.0</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s" s="1">
         <v>18</v>
@@ -7151,45 +6628,22 @@
         <v>0.0</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s" s="1">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s" s="1">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B15" t="s" s="1">
-        <v>111</v>
-      </c>
-      <c r="C15" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="D15" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -7242,10 +6696,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s" s="1">
         <v>13</v>
@@ -7254,7 +6708,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="1">
         <v>12</v>
@@ -7265,13 +6719,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s" s="1">
         <v>8</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s" s="1">
         <v>10</v>
@@ -7288,7 +6742,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s" s="1">
         <v>13</v>
@@ -7297,7 +6751,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s" s="1">
         <v>26</v>
@@ -7311,7 +6765,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s" s="1">
         <v>13</v>
@@ -7320,7 +6774,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s" s="1">
         <v>11</v>
@@ -7334,7 +6788,7 @@
         <v>1.0</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s" s="1">
         <v>13</v>
@@ -7343,7 +6797,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s" s="1">
         <v>11</v>
@@ -7357,7 +6811,7 @@
         <v>1.0</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s" s="1">
         <v>13</v>
@@ -7366,7 +6820,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s" s="1">
         <v>26</v>
@@ -7380,7 +6834,7 @@
         <v>1.0</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s" s="1">
         <v>13</v>
@@ -7389,7 +6843,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s" s="1">
         <v>26</v>
@@ -7403,7 +6857,7 @@
         <v>1.0</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s" s="1">
         <v>13</v>
@@ -7412,13 +6866,13 @@
         <v>8</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s" s="1">
         <v>26</v>
       </c>
       <c r="G9" t="s" s="1">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -7426,7 +6880,7 @@
         <v>1.0</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s" s="1">
         <v>13</v>
@@ -7435,13 +6889,13 @@
         <v>8</v>
       </c>
       <c r="E10" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s" s="1">
         <v>26</v>
       </c>
       <c r="G10" t="s" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -7494,19 +6948,19 @@
         <v>2.0</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s" s="1">
         <v>14</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s" s="1">
         <v>16</v>
@@ -7517,16 +6971,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s" s="1">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s" s="1">
         <v>15</v>
@@ -7540,19 +6994,19 @@
         <v>2.0</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s" s="1">
         <v>14</v>
       </c>
       <c r="F4" t="s" s="1">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s" s="1">
         <v>114</v>
@@ -7563,13 +7017,13 @@
         <v>2.0</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s" s="1">
         <v>19</v>
@@ -7578,7 +7032,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -7586,13 +7040,13 @@
         <v>2.0</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s" s="1">
         <v>10</v>
@@ -7609,13 +7063,13 @@
         <v>2.0</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s" s="1">
         <v>19</v>
@@ -7632,16 +7086,16 @@
         <v>2.0</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s" s="1">
         <v>48</v>
-      </c>
-      <c r="E8" t="s" s="1">
-        <v>47</v>
       </c>
       <c r="F8" t="s" s="1">
         <v>26</v>
@@ -7655,22 +7109,22 @@
         <v>2.0</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
@@ -7678,16 +7132,16 @@
         <v>2.0</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s" s="1">
         <v>48</v>
-      </c>
-      <c r="E10" t="s" s="1">
-        <v>47</v>
       </c>
       <c r="F10" t="s" s="1">
         <v>26</v>
@@ -7701,22 +7155,22 @@
         <v>2.0</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s" s="1">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -7724,13 +7178,13 @@
         <v>2.0</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s" s="1">
         <v>10</v>
@@ -7747,19 +7201,19 @@
         <v>2.0</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="E13" t="s" s="1">
-        <v>47</v>
-      </c>
       <c r="F13" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s" s="1">
         <v>116</v>
@@ -7770,19 +7224,19 @@
         <v>2.0</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s" s="1">
         <v>117</v>
@@ -7793,22 +7247,22 @@
         <v>2.0</v>
       </c>
       <c r="B15" t="s" s="1">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s" s="1">
         <v>111</v>
-      </c>
-      <c r="C15" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s" s="1">
-        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -7816,13 +7270,13 @@
         <v>2.0</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s" s="1">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s" s="1">
         <v>19</v>
@@ -7831,7 +7285,7 @@
         <v>26</v>
       </c>
       <c r="G16" t="s" s="1">
-        <v>32</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
@@ -7839,13 +7293,13 @@
         <v>2.0</v>
       </c>
       <c r="B17" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s" s="1">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s" s="1">
         <v>10</v>
@@ -7854,7 +7308,7 @@
         <v>26</v>
       </c>
       <c r="G17" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -7862,19 +7316,19 @@
         <v>2.0</v>
       </c>
       <c r="B18" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="E18" t="s" s="1">
-        <v>47</v>
-      </c>
       <c r="F18" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s" s="1">
         <v>118</v>
@@ -7885,22 +7339,22 @@
         <v>2.0</v>
       </c>
       <c r="B19" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="D19" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="E19" t="s" s="1">
-        <v>10</v>
-      </c>
       <c r="F19" t="s" s="1">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="1">
-        <v>35</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
@@ -7908,22 +7362,22 @@
         <v>2.0</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s" s="1">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s" s="1">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s" s="1">
-        <v>119</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
@@ -7931,22 +7385,22 @@
         <v>2.0</v>
       </c>
       <c r="B21" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="D21" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="E21" t="s" s="1">
-        <v>10</v>
-      </c>
       <c r="F21" t="s" s="1">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s" s="1">
-        <v>56</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
@@ -7954,13 +7408,13 @@
         <v>2.0</v>
       </c>
       <c r="B22" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s" s="1">
         <v>10</v>
@@ -7977,22 +7431,22 @@
         <v>2.0</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="D23" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="E23" t="s" s="1">
-        <v>10</v>
-      </c>
       <c r="F23" t="s" s="1">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="1">
-        <v>59</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
@@ -8000,16 +7454,16 @@
         <v>2.0</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s" s="1">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s" s="1">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s" s="1">
         <v>26</v>
@@ -8023,13 +7477,13 @@
         <v>2.0</v>
       </c>
       <c r="B25" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s" s="1">
         <v>19</v>
@@ -8038,7 +7492,7 @@
         <v>26</v>
       </c>
       <c r="G25" t="s" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
@@ -8046,22 +7500,22 @@
         <v>2.0</v>
       </c>
       <c r="B26" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s" s="1">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s" s="1">
         <v>26</v>
       </c>
       <c r="G26" t="s" s="1">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
@@ -8069,13 +7523,13 @@
         <v>2.0</v>
       </c>
       <c r="B27" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s" s="1">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s" s="1">
         <v>19</v>
@@ -8084,7 +7538,7 @@
         <v>26</v>
       </c>
       <c r="G27" t="s" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -8092,22 +7546,22 @@
         <v>2.0</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s" s="1">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s" s="1">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s" s="1">
         <v>26</v>
       </c>
       <c r="G28" t="s" s="1">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29">
@@ -8115,13 +7569,13 @@
         <v>2.0</v>
       </c>
       <c r="B29" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s" s="1">
         <v>19</v>
@@ -8130,7 +7584,7 @@
         <v>26</v>
       </c>
       <c r="G29" t="s" s="1">
-        <v>120</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -8183,22 +7637,22 @@
         <v>3.0</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
@@ -8206,22 +7660,22 @@
         <v>3.0</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s" s="1">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s" s="1">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s" s="1">
-        <v>124</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -8229,13 +7683,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s" s="1">
         <v>14</v>
@@ -8252,16 +7706,16 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s" s="1">
         <v>15</v>
@@ -8275,19 +7729,19 @@
         <v>3.0</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F6" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="1">
         <v>21</v>
@@ -8298,19 +7752,19 @@
         <v>3.0</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s" s="1">
         <v>115</v>
@@ -8321,13 +7775,13 @@
         <v>3.0</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s" s="1">
         <v>10</v>
@@ -8344,22 +7798,22 @@
         <v>3.0</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s" s="1">
         <v>122</v>
       </c>
-      <c r="D9" t="s" s="1">
-        <v>72</v>
-      </c>
       <c r="E9" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F9" t="s" s="1">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
@@ -8367,13 +7821,13 @@
         <v>3.0</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s" s="1">
         <v>10</v>
@@ -8390,22 +7844,22 @@
         <v>3.0</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s" s="1">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F11" t="s" s="1">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -8413,19 +7867,19 @@
         <v>3.0</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s" s="1">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F12" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="1">
         <v>28</v>
@@ -8436,19 +7890,19 @@
         <v>3.0</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s" s="1">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s" s="1">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s" s="1">
         <v>126</v>
@@ -8459,19 +7913,19 @@
         <v>3.0</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s" s="1">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F14" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="1">
         <v>30</v>
@@ -8482,22 +7936,22 @@
         <v>3.0</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s" s="1">
         <v>122</v>
       </c>
-      <c r="D15" t="s" s="1">
-        <v>70</v>
-      </c>
       <c r="E15" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F15" t="s" s="1">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s" s="1">
-        <v>53</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
@@ -8505,22 +7959,22 @@
         <v>3.0</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s" s="1">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s" s="1">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s" s="1">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
@@ -8528,22 +7982,22 @@
         <v>3.0</v>
       </c>
       <c r="B17" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F17" t="s" s="1">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -8551,22 +8005,22 @@
         <v>3.0</v>
       </c>
       <c r="B18" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s" s="1">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s" s="1">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s" s="1">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
@@ -8574,13 +8028,13 @@
         <v>3.0</v>
       </c>
       <c r="B19" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s" s="1">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s" s="1">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s" s="1">
         <v>19</v>
@@ -8589,7 +8043,7 @@
         <v>26</v>
       </c>
       <c r="G19" t="s" s="1">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -8597,13 +8051,13 @@
         <v>3.0</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s" s="1">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s" s="1">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s" s="1">
         <v>19</v>
@@ -8612,7 +8066,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -8620,10 +8074,10 @@
         <v>3.0</v>
       </c>
       <c r="B21" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s" s="1">
         <v>122</v>
@@ -8635,7 +8089,7 @@
         <v>26</v>
       </c>
       <c r="G21" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
@@ -8643,13 +8097,13 @@
         <v>3.0</v>
       </c>
       <c r="B22" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s" s="1">
         <v>19</v>
@@ -8658,7 +8112,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="s" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23">
@@ -8666,13 +8120,13 @@
         <v>3.0</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E23" t="s" s="1">
         <v>19</v>
@@ -8681,7 +8135,7 @@
         <v>26</v>
       </c>
       <c r="G23" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
@@ -8689,13 +8143,13 @@
         <v>3.0</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s" s="1">
         <v>19</v>
@@ -8704,7 +8158,7 @@
         <v>11</v>
       </c>
       <c r="G24" t="s" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25">
@@ -8712,10 +8166,10 @@
         <v>3.0</v>
       </c>
       <c r="B25" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s" s="1">
         <v>122</v>
@@ -8727,7 +8181,7 @@
         <v>26</v>
       </c>
       <c r="G25" t="s" s="1">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -8735,22 +8189,22 @@
         <v>3.0</v>
       </c>
       <c r="B26" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s" s="1">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s" s="1">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s" s="1">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27">
@@ -8758,13 +8212,13 @@
         <v>3.0</v>
       </c>
       <c r="B27" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s" s="1">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s" s="1">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s" s="1">
         <v>19</v>
@@ -8781,22 +8235,22 @@
         <v>3.0</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29">
@@ -8804,13 +8258,13 @@
         <v>3.0</v>
       </c>
       <c r="B29" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s" s="1">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s" s="1">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s" s="1">
         <v>19</v>
@@ -8827,22 +8281,22 @@
         <v>3.0</v>
       </c>
       <c r="B30" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s" s="1">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31">
@@ -8850,22 +8304,22 @@
         <v>3.0</v>
       </c>
       <c r="B31" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s" s="1">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s" s="1">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s" s="1">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s" s="1">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="1">
-        <v>61</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32">
@@ -8873,22 +8327,22 @@
         <v>3.0</v>
       </c>
       <c r="B32" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s" s="1">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s" s="1">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s" s="1">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G32" t="s" s="1">
-        <v>134</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
@@ -8896,22 +8350,22 @@
         <v>3.0</v>
       </c>
       <c r="B33" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s" s="1">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34">
@@ -8919,13 +8373,13 @@
         <v>3.0</v>
       </c>
       <c r="B34" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s" s="1">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s" s="1">
         <v>19</v>
@@ -8942,13 +8396,13 @@
         <v>3.0</v>
       </c>
       <c r="B35" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s" s="1">
         <v>122</v>
-      </c>
-      <c r="D35" t="s" s="1">
-        <v>70</v>
       </c>
       <c r="E35" t="s" s="1">
         <v>19</v>
@@ -8965,22 +8419,22 @@
         <v>3.0</v>
       </c>
       <c r="B36" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s" s="1">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s" s="1">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s" s="1">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s" s="1">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s" s="1">
-        <v>64</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37">
@@ -8988,13 +8442,13 @@
         <v>3.0</v>
       </c>
       <c r="B37" t="s" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s" s="1">
         <v>10</v>
@@ -9003,7 +8457,7 @@
         <v>11</v>
       </c>
       <c r="G37" t="s" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9013,7 +8467,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9056,7 +8510,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s" s="1">
         <v>18</v>
@@ -9065,13 +8519,13 @@
         <v>9</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>35</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
@@ -9079,7 +8533,7 @@
         <v>0.0</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s" s="1">
         <v>18</v>
@@ -9091,10 +8545,10 @@
         <v>19</v>
       </c>
       <c r="F3" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="1">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -9102,7 +8556,7 @@
         <v>0.0</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s" s="1">
         <v>18</v>
@@ -9114,10 +8568,10 @@
         <v>19</v>
       </c>
       <c r="F4" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -9125,7 +8579,7 @@
         <v>0.0</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s" s="1">
         <v>18</v>
@@ -9137,10 +8591,10 @@
         <v>19</v>
       </c>
       <c r="F5" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -9148,7 +8602,7 @@
         <v>0.0</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s" s="1">
         <v>18</v>
@@ -9160,10 +8614,10 @@
         <v>19</v>
       </c>
       <c r="F6" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="1">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -9171,7 +8625,7 @@
         <v>0.0</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s" s="1">
         <v>18</v>
@@ -9183,10 +8637,10 @@
         <v>19</v>
       </c>
       <c r="F7" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -9194,7 +8648,7 @@
         <v>0.0</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s" s="1">
         <v>18</v>
@@ -9206,10 +8660,10 @@
         <v>19</v>
       </c>
       <c r="F8" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -9217,7 +8671,7 @@
         <v>0.0</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s" s="1">
         <v>18</v>
@@ -9229,10 +8683,10 @@
         <v>19</v>
       </c>
       <c r="F9" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -9240,7 +8694,7 @@
         <v>0.0</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s" s="1">
         <v>18</v>
@@ -9252,10 +8706,10 @@
         <v>19</v>
       </c>
       <c r="F10" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -9263,7 +8717,7 @@
         <v>0.0</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s" s="1">
         <v>18</v>
@@ -9272,13 +8726,36 @@
         <v>9</v>
       </c>
       <c r="E11" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s" s="1">
         <v>94</v>
       </c>
-      <c r="F11" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s" s="1">
-        <v>66</v>
+      <c r="F12" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s" s="1">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -9288,7 +8765,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9331,22 +8808,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
@@ -9354,22 +8831,22 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="1">
-        <v>46</v>
-      </c>
       <c r="E3" t="s" s="1">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s" s="1">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s" s="1">
-        <v>78</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
@@ -9377,22 +8854,22 @@
         <v>1.0</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s" s="1">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="1">
-        <v>17</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
@@ -9400,22 +8877,22 @@
         <v>1.0</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s" s="1">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s" s="1">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6">
@@ -9423,22 +8900,22 @@
         <v>1.0</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F6" t="s" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s" s="1">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
@@ -9446,22 +8923,22 @@
         <v>1.0</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="1">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -9469,22 +8946,22 @@
         <v>1.0</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s" s="1">
         <v>19</v>
       </c>
       <c r="F8" t="s" s="1">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s" s="1">
-        <v>85</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9">
@@ -9492,22 +8969,22 @@
         <v>1.0</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="1">
-        <v>24</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -9515,22 +8992,22 @@
         <v>1.0</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s" s="1">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s" s="1">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s" s="1">
-        <v>88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -9538,22 +9015,22 @@
         <v>1.0</v>
       </c>
       <c r="B11" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s" s="1">
         <v>8</v>
       </c>
       <c r="D11" t="s" s="1">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s" s="1">
         <v>25</v>
       </c>
       <c r="F11" t="s" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -9561,22 +9038,22 @@
         <v>1.0</v>
       </c>
       <c r="B12" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s" s="1">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s" s="1">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s" s="1">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s" s="1">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -9584,13 +9061,13 @@
         <v>1.0</v>
       </c>
       <c r="B13" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s" s="1">
         <v>8</v>
       </c>
       <c r="D13" t="s" s="1">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s" s="1">
         <v>25</v>
@@ -9599,7 +9076,7 @@
         <v>26</v>
       </c>
       <c r="G13" t="s" s="1">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -9607,22 +9084,22 @@
         <v>1.0</v>
       </c>
       <c r="B14" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s" s="1">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s" s="1">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s" s="1">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s" s="1">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -9630,22 +9107,22 @@
         <v>1.0</v>
       </c>
       <c r="B15" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s" s="1">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s" s="1">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="1">
-        <v>127</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -9653,22 +9130,22 @@
         <v>1.0</v>
       </c>
       <c r="B16" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s" s="1">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s" s="1">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s" s="1">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s" s="1">
-        <v>35</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
@@ -9676,22 +9153,22 @@
         <v>1.0</v>
       </c>
       <c r="B17" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s" s="1">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s" s="1">
-        <v>128</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -9699,22 +9176,22 @@
         <v>1.0</v>
       </c>
       <c r="B18" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s" s="1">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s" s="1">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s" s="1">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="1">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s" s="1">
-        <v>55</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19">
@@ -9722,22 +9199,22 @@
         <v>1.0</v>
       </c>
       <c r="B19" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s" s="1">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s" s="1">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="1">
-        <v>129</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
@@ -9745,22 +9222,22 @@
         <v>1.0</v>
       </c>
       <c r="B20" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s" s="1">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s" s="1">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s" s="1">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s" s="1">
-        <v>56</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21">
@@ -9768,22 +9245,22 @@
         <v>1.0</v>
       </c>
       <c r="B21" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s" s="1">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s" s="1">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s" s="1">
-        <v>130</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -9791,22 +9268,22 @@
         <v>1.0</v>
       </c>
       <c r="B22" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s" s="1">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s" s="1">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s" s="1">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s" s="1">
-        <v>58</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23">
@@ -9814,22 +9291,22 @@
         <v>1.0</v>
       </c>
       <c r="B23" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s" s="1">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s" s="1">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s" s="1">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="1">
-        <v>131</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
@@ -9837,22 +9314,22 @@
         <v>1.0</v>
       </c>
       <c r="B24" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s" s="1">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s" s="1">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s" s="1">
-        <v>59</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25">
@@ -9860,22 +9337,22 @@
         <v>1.0</v>
       </c>
       <c r="B25" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s" s="1">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s" s="1">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s" s="1">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
@@ -9883,22 +9360,22 @@
         <v>1.0</v>
       </c>
       <c r="B26" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s" s="1">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s" s="1">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s" s="1">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s" s="1">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27">
@@ -9906,10 +9383,10 @@
         <v>1.0</v>
       </c>
       <c r="B27" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s" s="1">
         <v>13</v>
@@ -9921,7 +9398,7 @@
         <v>11</v>
       </c>
       <c r="G27" t="s" s="1">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28">
@@ -9929,13 +9406,13 @@
         <v>1.0</v>
       </c>
       <c r="B28" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s" s="1">
         <v>8</v>
       </c>
       <c r="D28" t="s" s="1">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s" s="1">
         <v>25</v>
@@ -9952,13 +9429,13 @@
         <v>1.0</v>
       </c>
       <c r="B29" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s" s="1">
         <v>19</v>
@@ -9967,7 +9444,7 @@
         <v>11</v>
       </c>
       <c r="G29" t="s" s="1">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30">
@@ -9975,22 +9452,22 @@
         <v>1.0</v>
       </c>
       <c r="B30" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s" s="1">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s" s="1">
         <v>10</v>
       </c>
       <c r="F30" t="s" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
@@ -9998,22 +9475,22 @@
         <v>1.0</v>
       </c>
       <c r="B31" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s" s="1">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s" s="1">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s" s="1">
         <v>26</v>
       </c>
       <c r="G31" t="s" s="1">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
@@ -10021,22 +9498,68 @@
         <v>1.0</v>
       </c>
       <c r="B32" t="s" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s" s="1">
+        <v>145</v>
+      </c>
+      <c r="D32" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="E33" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="D32" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s" s="1">
+      <c r="D34" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="F32" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="G32" t="s" s="1">
-        <v>143</v>
+      <c r="E34" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="F34" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s" s="1">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
